--- a/Output/Tasas/Base_completa.xlsx
+++ b/Output/Tasas/Base_completa.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jd/Dropbox/Consultorias/Red_Hosp_Bolivia/Output/Tasas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jd/Dropbox/Consultorias/Red_Hosp_Bolivia/RED_HOSP_BOLIVIA/Output/Tasas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A568A3-00D4-6B47-A3AA-F878D3B48128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F7A895-D036-954D-AC89-D99A49894EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ref2014g" sheetId="1" r:id="rId1"/>
@@ -1271,16 +1271,19 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -7139,11 +7142,11 @@
         <v>3839</v>
       </c>
       <c r="G2" s="7">
-        <f>(C2/$F2)</f>
+        <f t="shared" ref="G2:H7" si="0">(C2/$F2)</f>
         <v>0.12867934357905705</v>
       </c>
       <c r="H2" s="7">
-        <f>(D2/$F2)</f>
+        <f t="shared" si="0"/>
         <v>3.5686376660588694E-2</v>
       </c>
       <c r="I2" s="9">
@@ -7167,22 +7170,22 @@
         <v>63</v>
       </c>
       <c r="E3" s="6">
-        <f t="shared" ref="E3:E7" si="0">SUM(C3:D3)</f>
+        <f t="shared" ref="E3:E7" si="1">SUM(C3:D3)</f>
         <v>543</v>
       </c>
       <c r="F3" s="5">
         <v>2529</v>
       </c>
       <c r="G3" s="7">
-        <f>(C3/$F3)</f>
+        <f t="shared" si="0"/>
         <v>0.18979833926453143</v>
       </c>
       <c r="H3" s="7">
-        <f>(D3/$F3)</f>
+        <f t="shared" si="0"/>
         <v>2.491103202846975E-2</v>
       </c>
       <c r="I3" s="9">
-        <f t="shared" ref="I3:I7" si="1">E3/F3</f>
+        <f t="shared" ref="I3:I7" si="2">E3/F3</f>
         <v>0.21470937129300119</v>
       </c>
     </row>
@@ -7202,22 +7205,22 @@
         <v>35</v>
       </c>
       <c r="E4" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>589</v>
       </c>
       <c r="F4" s="5">
         <v>1567</v>
       </c>
       <c r="G4" s="7">
-        <f>(C4/$F4)</f>
+        <f t="shared" si="0"/>
         <v>0.35354179961710275</v>
       </c>
       <c r="H4" s="7">
-        <f>(D4/$F4)</f>
+        <f t="shared" si="0"/>
         <v>2.2335673261008295E-2</v>
       </c>
       <c r="I4" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37587747287811102</v>
       </c>
     </row>
@@ -7237,22 +7240,22 @@
         <v>17</v>
       </c>
       <c r="E5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1203</v>
       </c>
       <c r="F5" s="5">
         <v>5949</v>
       </c>
       <c r="G5" s="7">
-        <f>(C5/$F5)</f>
+        <f t="shared" si="0"/>
         <v>0.19936123718271978</v>
       </c>
       <c r="H5" s="7">
-        <f>(D5/$F5)</f>
+        <f t="shared" si="0"/>
         <v>2.8576231299378045E-3</v>
       </c>
       <c r="I5" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.20221886031265759</v>
       </c>
     </row>
@@ -7272,22 +7275,22 @@
         <v>33</v>
       </c>
       <c r="E6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1854</v>
       </c>
       <c r="F6" s="5">
         <v>5209</v>
       </c>
       <c r="G6" s="7">
-        <f>(C6/$F6)</f>
+        <f t="shared" si="0"/>
         <v>0.34958725283163755</v>
       </c>
       <c r="H6" s="7">
-        <f>(D6/$F6)</f>
+        <f t="shared" si="0"/>
         <v>6.3351890957957383E-3</v>
       </c>
       <c r="I6" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35592244192743328</v>
       </c>
     </row>
@@ -7307,22 +7310,22 @@
         <v>7</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1543</v>
       </c>
       <c r="F7" s="5">
         <v>4101</v>
       </c>
       <c r="G7" s="7">
-        <f>(C7/$F7)</f>
+        <f t="shared" si="0"/>
         <v>0.37454279444038041</v>
       </c>
       <c r="H7" s="7">
-        <f>(D7/$F7)</f>
+        <f t="shared" si="0"/>
         <v>1.706900755913192E-3</v>
       </c>
       <c r="I7" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.37624969519629359</v>
       </c>
     </row>
@@ -8324,7 +8327,7 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -13256,8 +13259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
